--- a/Doc/Project.xlsx
+++ b/Doc/Project.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgevor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasmik Sargsyan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,9 +203,6 @@
     <t>Started 0%</t>
   </si>
   <si>
-    <t>In progress 20%</t>
-  </si>
-  <si>
     <t>Razmik</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Data Provider</t>
+  </si>
+  <si>
+    <t>In progress 90%</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -450,384 +467,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -842,7 +481,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:H54"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Item Name"/>
@@ -934,23 +573,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -986,23 +608,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1157,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -1194,7 +799,7 @@
         <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,7 +823,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9">
         <v>42691</v>
@@ -1235,13 +840,13 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42691</v>
+      </c>
+      <c r="F5" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="9">
-        <v>42691</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,7 +860,7 @@
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9">
         <v>42691</v>
@@ -1275,7 +880,7 @@
         <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="9">
         <v>42691</v>
@@ -1300,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9">
         <v>42691</v>
@@ -1320,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="9">
         <v>42691</v>
@@ -1334,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9">
         <v>42691</v>
@@ -1348,7 +953,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9">
         <v>42691</v>
@@ -1362,7 +967,7 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9">
         <v>42691</v>
@@ -1379,18 +984,18 @@
         <v>42691</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="9">
         <v>42691</v>
@@ -1412,7 +1017,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="9">
         <v>42691</v>
@@ -1426,7 +1031,7 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="9">
         <v>42691</v>
@@ -1443,7 +1048,7 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="9">
         <v>42691</v>
@@ -1473,7 +1078,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9">
         <v>42691</v>
@@ -1487,7 +1092,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="9">
         <v>42691</v>
@@ -1495,7 +1100,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -1512,7 +1117,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="9">
         <v>42691</v>
@@ -1526,7 +1131,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="9">
         <v>42691</v>
@@ -1537,7 +1142,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="9">
         <v>42691</v>
@@ -1559,7 +1164,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="9">
         <v>42691</v>
@@ -1573,7 +1178,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="9">
         <v>42691</v>
@@ -1587,7 +1192,7 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="9">
         <v>42691</v>
@@ -1601,7 +1206,7 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="9">
         <v>42691</v>
@@ -1623,7 +1228,7 @@
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="9">
         <v>42691</v>
@@ -1645,7 +1250,7 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="9">
         <v>42691</v>
@@ -1659,7 +1264,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="9">
         <v>42691</v>
@@ -1673,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="9">
         <v>42691</v>
@@ -1687,7 +1292,7 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="9">
         <v>42691</v>
@@ -1701,7 +1306,7 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" s="9">
         <v>42691</v>
@@ -1715,7 +1320,7 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="9">
         <v>42691</v>
@@ -1729,7 +1334,7 @@
         <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" s="9">
         <v>42691</v>
@@ -1743,7 +1348,7 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="9">
         <v>42691</v>
@@ -1754,10 +1359,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="9">
         <v>42691</v>
@@ -1765,7 +1370,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,18 +1381,18 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="9">
         <v>42691</v>
@@ -1795,13 +1400,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="9">
         <v>42691</v>
@@ -1809,7 +1414,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -1820,7 +1425,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -1831,44 +1436,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C54 B1:B1048576">
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Started">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Started">
       <formula>NOT(ISERROR(SEARCH("Started",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Ready">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Ready">
       <formula>NOT(ISERROR(SEARCH("Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/Project.xlsx
+++ b/Doc/Project.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasmik Sargsyan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgevor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Ready 80%</t>
   </si>
   <si>
-    <t>In progress 10%</t>
-  </si>
-  <si>
     <t>Started 0%</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>In progress 90%</t>
+  </si>
+  <si>
+    <t>Ready 70%</t>
   </si>
 </sst>
 </file>
@@ -573,6 +573,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -608,6 +625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -799,7 +833,7 @@
         <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,7 +857,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9">
         <v>42691</v>
@@ -840,13 +874,13 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42691</v>
+      </c>
+      <c r="F5" t="s">
         <v>60</v>
-      </c>
-      <c r="E5" s="9">
-        <v>42691</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -860,7 +894,7 @@
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="9">
         <v>42691</v>
@@ -880,7 +914,7 @@
         <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="9">
         <v>42691</v>
@@ -905,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="9">
         <v>42691</v>
@@ -925,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="9">
         <v>42691</v>
@@ -939,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="9">
         <v>42691</v>
@@ -953,7 +987,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="9">
         <v>42691</v>
@@ -967,7 +1001,7 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9">
         <v>42691</v>
@@ -984,18 +1018,18 @@
         <v>42691</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="9">
         <v>42691</v>
@@ -1017,7 +1051,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="9">
         <v>42691</v>
@@ -1031,7 +1065,7 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="9">
         <v>42691</v>
@@ -1045,10 +1079,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="9">
         <v>42691</v>
@@ -1078,7 +1112,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="9">
         <v>42691</v>
@@ -1092,7 +1126,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="9">
         <v>42691</v>
@@ -1100,7 +1134,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -1117,7 +1151,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="9">
         <v>42691</v>
@@ -1131,7 +1165,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="9">
         <v>42691</v>
@@ -1142,7 +1176,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="9">
         <v>42691</v>
@@ -1164,7 +1198,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="9">
         <v>42691</v>
@@ -1178,7 +1212,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="9">
         <v>42691</v>
@@ -1189,10 +1223,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="9">
         <v>42691</v>
@@ -1203,10 +1237,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="9">
         <v>42691</v>
@@ -1228,7 +1262,7 @@
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="9">
         <v>42691</v>
@@ -1250,7 +1284,7 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="9">
         <v>42691</v>
@@ -1264,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="9">
         <v>42691</v>
@@ -1278,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="9">
         <v>42691</v>
@@ -1292,7 +1326,7 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="9">
         <v>42691</v>
@@ -1306,7 +1340,7 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="9">
         <v>42691</v>
@@ -1320,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="9">
         <v>42691</v>
@@ -1334,7 +1368,7 @@
         <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="9">
         <v>42691</v>
@@ -1348,7 +1382,7 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="9">
         <v>42691</v>
@@ -1359,10 +1393,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="9">
         <v>42691</v>
@@ -1370,7 +1404,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,18 +1415,18 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="9">
         <v>42691</v>
@@ -1400,13 +1434,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="9">
         <v>42691</v>
@@ -1414,7 +1448,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -1425,7 +1459,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>

--- a/Doc/Project.xlsx
+++ b/Doc/Project.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgevor\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>Item Name</t>
   </si>
@@ -267,13 +262,37 @@
   </si>
   <si>
     <t>Ready 70%</t>
+  </si>
+  <si>
+    <t>Started 1%</t>
+  </si>
+  <si>
+    <t>IFieldCollection</t>
+  </si>
+  <si>
+    <t>Interface for getting fields</t>
+  </si>
+  <si>
+    <t>typedef string to Field, it is ID for a Field</t>
+  </si>
+  <si>
+    <t>It contains all selections of field values</t>
+  </si>
+  <si>
+    <t>Represents information of analyse (Type, Parameter etc.)</t>
+  </si>
+  <si>
+    <t>Wafer analyse: Drow wafer on view with to mode (MF, Yield)</t>
+  </si>
+  <si>
+    <t>Wafer Analyse: Paremeter selection page (BinType, Mode)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,9 +356,209 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -356,116 +575,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,8 +590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:H55"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Item Name"/>
     <tableColumn id="2" name="Status"/>
@@ -540,7 +649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -592,7 +701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -786,21 +895,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -810,7 +919,7 @@
     <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,17 +945,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -860,10 +969,10 @@
         <v>59</v>
       </c>
       <c r="E4" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,15 +986,15 @@
         <v>59</v>
       </c>
       <c r="E5" s="9">
-        <v>42691</v>
+        <v>42561</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -894,18 +1003,18 @@
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9">
-        <v>42691</v>
+        <v>42561</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -919,44 +1028,44 @@
       <c r="E7" s="9">
         <v>42691</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E9" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="9">
-        <v>42691</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -965,26 +1074,32 @@
         <v>42691</v>
       </c>
       <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42691</v>
+      </c>
+      <c r="F11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
@@ -993,12 +1108,12 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
@@ -1007,162 +1122,183 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="9">
-        <v>42691</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="9">
+        <v>42691</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="E16" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
+      <c r="C18">
+        <v>0.1</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="9">
-        <v>42691</v>
+        <v>42552</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+        <v>42566</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42705</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E21" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="E22" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="E23" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="E24" s="9">
+        <v>42592</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="E25" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -1171,9 +1307,12 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
@@ -1182,131 +1321,131 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="E29" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
       </c>
       <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="E31" s="9">
+        <v>42707</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="E33" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="E34" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="E35" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="E36" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="9">
         <v>42691</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>37</v>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -1318,9 +1457,9 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -1332,9 +1471,9 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -1346,120 +1485,129 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="E42" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="E43" s="9">
+        <v>42633</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="E44" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>79</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="E45" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" s="9">
         <v>42691</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>77</v>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
       <c r="E52" s="9">
         <v>42691</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -1468,46 +1616,57 @@
         <v>42691</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="9">
+        <v>42691</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C54 B1:B1048576">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Started">
+  <conditionalFormatting sqref="C1:C55 B1:B1048576">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Started">
       <formula>NOT(ISERROR(SEARCH("Started",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Ready">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Ready">
       <formula>NOT(ISERROR(SEARCH("Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C10">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",B10)))</formula>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/Project.xlsx
+++ b/Doc/Project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t>Item Name</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Histogram</t>
   </si>
   <si>
-    <t>Wafer</t>
-  </si>
-  <si>
     <t>Pareto</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Represents single filed with its selection (values, search pattern etc.)</t>
   </si>
   <si>
-    <t>Ready 80%</t>
-  </si>
-  <si>
     <t>Started 0%</t>
   </si>
   <si>
@@ -261,12 +255,6 @@
     <t>In progress 90%</t>
   </si>
   <si>
-    <t>Ready 70%</t>
-  </si>
-  <si>
-    <t>Started 1%</t>
-  </si>
-  <si>
     <t>IFieldCollection</t>
   </si>
   <si>
@@ -282,10 +270,19 @@
     <t>Represents information of analyse (Type, Parameter etc.)</t>
   </si>
   <si>
-    <t>Wafer analyse: Drow wafer on view with to mode (MF, Yield)</t>
-  </si>
-  <si>
     <t>Wafer Analyse: Paremeter selection page (BinType, Mode)</t>
+  </si>
+  <si>
+    <t>Wafer analyse: Drow wafer map (support 4 types)</t>
+  </si>
+  <si>
+    <t>Provides files content</t>
+  </si>
+  <si>
+    <t>Ready 95%</t>
+  </si>
+  <si>
+    <t>Wafer Map</t>
   </si>
 </sst>
 </file>
@@ -358,7 +355,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -408,6 +405,23 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -509,73 +523,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -590,7 +537,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:H55"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Item Name"/>
@@ -895,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -927,22 +874,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -960,16 +907,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="9">
         <v>42561</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -977,39 +927,39 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="9">
         <v>42561</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="9">
         <v>42561</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1017,19 +967,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9">
         <v>42691</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1037,13 +987,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>0.1</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="9">
         <v>42691</v>
@@ -1062,19 +1012,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9">
         <v>42691</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1082,19 +1032,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9">
         <v>42691</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1102,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="9">
         <v>42691</v>
@@ -1113,10 +1063,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="9">
         <v>42691</v>
@@ -1127,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9">
         <v>42691</v>
@@ -1141,24 +1091,24 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9">
         <v>42691</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="9">
         <v>42691</v>
@@ -1177,39 +1127,39 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>0.1</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="9">
         <v>42552</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>0.1</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="9">
         <v>42566</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1217,19 +1167,19 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.3</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="9">
         <v>42705</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1253,10 +1203,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="9">
         <v>42691</v>
@@ -1267,27 +1217,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="9">
         <v>42592</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="9">
         <v>42691</v>
@@ -1298,10 +1248,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="9">
         <v>42691</v>
@@ -1312,10 +1262,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="9">
         <v>42691</v>
@@ -1323,10 +1273,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="9">
         <v>42691</v>
@@ -1345,10 +1295,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="9">
         <v>42691</v>
@@ -1356,30 +1306,33 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" s="9">
         <v>42707</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="9">
         <v>42691</v>
@@ -1387,13 +1340,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="9">
         <v>42691</v>
@@ -1401,7 +1354,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="9">
         <v>42691</v>
@@ -1409,13 +1362,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="9">
         <v>42691</v>
@@ -1423,7 +1376,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="9">
         <v>42691</v>
@@ -1431,13 +1384,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="9">
         <v>42691</v>
@@ -1445,13 +1398,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="9">
         <v>42691</v>
@@ -1459,13 +1412,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="9">
         <v>42691</v>
@@ -1473,13 +1426,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" s="9">
         <v>42691</v>
@@ -1487,13 +1440,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="9">
         <v>42691</v>
@@ -1501,13 +1454,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E42" s="9">
         <v>42691</v>
@@ -1515,33 +1468,33 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>0.5</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E43" s="9">
         <v>42633</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" s="9">
         <v>42691</v>
@@ -1549,13 +1502,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E45" s="9">
         <v>42691</v>
@@ -1563,7 +1516,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1574,18 +1527,18 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E51" s="9">
         <v>42691</v>
@@ -1593,13 +1546,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E52" s="9">
         <v>42691</v>
@@ -1607,10 +1560,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E53" s="9">
         <v>42691</v>
@@ -1618,10 +1571,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="9">
         <v>42691</v>
@@ -1629,44 +1582,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C55 B1:B1048576">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Started">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Started">
       <formula>NOT(ISERROR(SEARCH("Started",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Ready">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Ready">
       <formula>NOT(ISERROR(SEARCH("Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/Project.xlsx
+++ b/Doc/Project.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Item Name</t>
   </si>
@@ -283,13 +283,25 @@
   </si>
   <si>
     <t>Wafer Map</t>
+  </si>
+  <si>
+    <t>Analysis Factory</t>
+  </si>
+  <si>
+    <t>Started 50%</t>
+  </si>
+  <si>
+    <t>Started 20%</t>
+  </si>
+  <si>
+    <t>Started 30%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,19 +365,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -375,53 +377,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -523,6 +478,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -537,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:H55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H56" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:H56"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Item Name"/>
     <tableColumn id="2" name="Status"/>
@@ -842,21 +814,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -866,7 +838,7 @@
     <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,17 +864,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -922,7 +894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -942,7 +914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
@@ -962,7 +934,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -982,7 +954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -999,7 +971,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +979,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1030,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1044,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1086,7 +1058,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
@@ -1114,7 +1086,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1094,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +1114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1162,7 +1134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1190,7 +1162,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1198,7 +1170,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1184,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1204,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1243,7 +1215,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1229,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1271,148 +1243,149 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="E30" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="E31" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>42707</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
       </c>
       <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="E34" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
+      <c r="E35" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
+      <c r="E36" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
+      <c r="E37" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
+      <c r="E38" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -1424,9 +1397,9 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
@@ -1438,9 +1411,9 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
-        <v>38</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
@@ -1452,126 +1425,129 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8" t="s">
+      <c r="E43" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>0.5</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>42633</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
+      <c r="E45" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>77</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="6" t="s">
+      <c r="E46" s="9">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="9">
-        <v>42691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="9">
         <v>42691</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
-        <v>75</v>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
       <c r="E53" s="9">
         <v>42691</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -1580,46 +1556,57 @@
         <v>42691</v>
       </c>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="9">
+        <v>42691</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C55 B1:B1048576">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Started">
+  <conditionalFormatting sqref="C1:C56 B1:B1048576">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Started">
       <formula>NOT(ISERROR(SEARCH("Started",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Ready">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Ready">
       <formula>NOT(ISERROR(SEARCH("Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1646,7 +1633,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C1:C54 B1:B1048576</xm:sqref>
+          <xm:sqref>C1:C55 B1:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Doc/Project.xlsx
+++ b/Doc/Project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>Item Name</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Started 30%</t>
+  </si>
+  <si>
+    <t>Pending (Terminated)</t>
   </si>
 </sst>
 </file>
@@ -368,6 +371,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -478,23 +498,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -509,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H56" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H56" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:H56"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Item Name"/>
@@ -814,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,7 +828,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1212,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E25" s="9">
         <v>42691</v>
@@ -1569,44 +1572,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C56 B1:B1048576">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Started">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Started">
       <formula>NOT(ISERROR(SEARCH("Started",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Ready">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Ready">
       <formula>NOT(ISERROR(SEARCH("Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
